--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -467,11 +467,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,44 +482,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>40</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>40</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -461,37 +461,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-27</t>
         </is>
       </c>
     </row>
